--- a/Data Dict/Data_Dict_V0.06.xlsx
+++ b/Data Dict/Data_Dict_V0.06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/both/Desktop/MDS/Semester_3/Data Sci project/Data Dict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/S3/Data-Science-Project/Data Dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE2BC69-8BB5-3943-AA8C-AEFA5EB8A407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874559DF-806B-584C-AAA1-85B9F2FAA72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -1254,7 +1254,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,7 +1269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,9 +1419,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,6 +1426,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2978,7 +2987,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2998,7 +3007,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +3165,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -3174,7 +3183,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="11" t="s">
         <v>58</v>
       </c>
@@ -3190,7 +3199,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="11" t="s">
         <v>59</v>
       </c>
@@ -3206,7 +3215,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
@@ -3222,7 +3231,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="11" t="s">
         <v>61</v>
       </c>
@@ -3238,7 +3247,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="11" t="s">
         <v>62</v>
       </c>
@@ -3254,7 +3263,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="11" t="s">
         <v>63</v>
       </c>
@@ -3270,7 +3279,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="11" t="s">
         <v>64</v>
       </c>
@@ -3302,7 +3311,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -3320,7 +3329,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="11" t="s">
         <v>69</v>
       </c>
@@ -3336,7 +3345,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="11" t="s">
         <v>70</v>
       </c>
@@ -3352,7 +3361,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="11" t="s">
         <v>71</v>
       </c>
@@ -3404,7 +3413,7 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -3420,7 +3429,7 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="11" t="s">
         <v>78</v>
       </c>
@@ -3434,7 +3443,7 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="11" t="s">
         <v>79</v>
       </c>
@@ -3448,7 +3457,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="11" t="s">
         <v>80</v>
       </c>
@@ -3462,7 +3471,7 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="11" t="s">
         <v>81</v>
       </c>
@@ -3476,7 +3485,7 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="11" t="s">
         <v>82</v>
       </c>
@@ -3490,7 +3499,7 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="11" t="s">
         <v>83</v>
       </c>
@@ -3504,7 +3513,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="11" t="s">
         <v>84</v>
       </c>
@@ -3518,7 +3527,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="11" t="s">
         <v>85</v>
       </c>
@@ -3532,7 +3541,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="11" t="s">
         <v>86</v>
       </c>
@@ -3546,7 +3555,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="11" t="s">
         <v>87</v>
       </c>
@@ -3576,7 +3585,7 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3594,7 +3603,7 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="11" t="s">
         <v>92</v>
       </c>
@@ -3610,7 +3619,7 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="11" t="s">
         <v>93</v>
       </c>
@@ -3626,7 +3635,7 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="11" t="s">
         <v>94</v>
       </c>
@@ -3692,7 +3701,7 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -3708,7 +3717,7 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="11" t="s">
         <v>101</v>
       </c>
@@ -3722,7 +3731,7 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="11" t="s">
         <v>102</v>
       </c>
@@ -3736,7 +3745,7 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="11" t="s">
         <v>103</v>
       </c>
@@ -3750,7 +3759,7 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="11" t="s">
         <v>104</v>
       </c>
@@ -3764,7 +3773,7 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="11" t="s">
         <v>105</v>
       </c>
@@ -3778,7 +3787,7 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="29"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="11" t="s">
         <v>106</v>
       </c>
@@ -3792,7 +3801,7 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="29"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="11" t="s">
         <v>107</v>
       </c>
@@ -3806,7 +3815,7 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="11" t="s">
         <v>108</v>
       </c>
@@ -3820,7 +3829,7 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="11" t="s">
         <v>109</v>
       </c>
@@ -3834,7 +3843,7 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -3850,7 +3859,7 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="11" t="s">
         <v>112</v>
       </c>
@@ -3864,7 +3873,7 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="11" t="s">
         <v>113</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="11" t="s">
         <v>114</v>
       </c>
@@ -3892,7 +3901,7 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -3912,7 +3921,7 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="11" t="s">
         <v>119</v>
       </c>
@@ -3930,7 +3939,7 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="11" t="s">
         <v>120</v>
       </c>
@@ -7654,7 +7663,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261"/>
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -7908,7 +7917,7 @@
       <c r="B12" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -7980,7 +7989,7 @@
       <c r="B16" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -8004,7 +8013,7 @@
       <c r="B17" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="31" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20"/>
@@ -8026,7 +8035,7 @@
       <c r="B18" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="31" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="20"/>
@@ -8046,7 +8055,7 @@
       <c r="B19" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="20"/>
@@ -8066,7 +8075,7 @@
       <c r="B20" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="20"/>
@@ -8086,7 +8095,7 @@
       <c r="B21" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="20"/>
@@ -8106,7 +8115,7 @@
       <c r="B22" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="20"/>
@@ -8128,7 +8137,7 @@
       <c r="B23" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="20"/>
@@ -8148,7 +8157,7 @@
       <c r="B24" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="20"/>
@@ -8186,7 +8195,7 @@
       <c r="B26" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -8206,7 +8215,7 @@
       <c r="B27" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -8226,7 +8235,7 @@
       <c r="B28" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -8246,7 +8255,7 @@
       <c r="B29" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -8270,7 +8279,7 @@
       <c r="B30" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -8312,7 +8321,7 @@
       <c r="B32" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="17"/>
@@ -8330,7 +8339,7 @@
       <c r="B33" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="17"/>
@@ -8348,7 +8357,7 @@
       <c r="B34" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="17"/>
@@ -8370,7 +8379,7 @@
       <c r="B35" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="17"/>
@@ -8388,7 +8397,7 @@
       <c r="B36" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="17"/>
@@ -8406,7 +8415,7 @@
       <c r="B37" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="31" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="17"/>
@@ -8428,7 +8437,7 @@
       <c r="B38" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="17"/>
@@ -8448,7 +8457,7 @@
       <c r="B39" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="17"/>
@@ -8466,7 +8475,7 @@
       <c r="B40" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="17"/>
@@ -8484,7 +8493,7 @@
       <c r="B41" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="17"/>
@@ -8502,7 +8511,7 @@
       <c r="B42" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="17"/>
@@ -8520,7 +8529,7 @@
       <c r="B43" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="32" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -8542,7 +8551,7 @@
       <c r="B44" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -8562,7 +8571,7 @@
       <c r="B45" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -8582,7 +8591,7 @@
       <c r="B46" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -8602,7 +8611,7 @@
       <c r="B47" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="31" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -8626,7 +8635,7 @@
       <c r="B48" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="31" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="20"/>
@@ -8646,7 +8655,7 @@
       <c r="B49" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="20"/>
@@ -8684,7 +8693,7 @@
       <c r="B51" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="31" t="s">
         <v>100</v>
       </c>
       <c r="D51" s="20"/>
@@ -8704,7 +8713,7 @@
       <c r="B52" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="31" t="s">
         <v>101</v>
       </c>
       <c r="D52" s="20"/>
@@ -8722,7 +8731,7 @@
       <c r="B53" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="31" t="s">
         <v>102</v>
       </c>
       <c r="D53" s="20"/>
@@ -8740,7 +8749,7 @@
       <c r="B54" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="31" t="s">
         <v>103</v>
       </c>
       <c r="D54" s="20"/>
@@ -8758,7 +8767,7 @@
       <c r="B55" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="31" t="s">
         <v>104</v>
       </c>
       <c r="D55" s="20"/>
@@ -8776,7 +8785,7 @@
       <c r="B56" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D56" s="20"/>
@@ -8794,7 +8803,7 @@
       <c r="B57" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="31" t="s">
         <v>106</v>
       </c>
       <c r="D57" s="20"/>
@@ -8812,7 +8821,7 @@
       <c r="B58" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D58" s="20"/>
@@ -8830,7 +8839,7 @@
       <c r="B59" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="31" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="20"/>
@@ -8848,7 +8857,7 @@
       <c r="B60" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="20"/>
@@ -8866,7 +8875,7 @@
       <c r="B61" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="31" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -8886,7 +8895,7 @@
       <c r="B62" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="31" t="s">
         <v>112</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -8910,7 +8919,7 @@
       <c r="B63" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="31" t="s">
         <v>113</v>
       </c>
       <c r="D63" s="20" t="s">
@@ -8930,7 +8939,7 @@
       <c r="B64" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="20" t="s">
@@ -10122,7 +10131,7 @@
       <c r="B137" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D137" s="20" t="s">
@@ -10142,7 +10151,7 @@
       <c r="B138" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="31" t="s">
         <v>191</v>
       </c>
       <c r="D138" s="20" t="s">
@@ -10180,7 +10189,7 @@
       <c r="B140" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="31" t="s">
         <v>193</v>
       </c>
       <c r="D140" s="20" t="s">
@@ -10202,7 +10211,7 @@
       <c r="B141" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="31" t="s">
         <v>194</v>
       </c>
       <c r="D141" s="20" t="s">
@@ -10226,7 +10235,7 @@
       <c r="B142" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="31" t="s">
         <v>197</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -10250,7 +10259,7 @@
       <c r="B143" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="31" t="s">
         <v>198</v>
       </c>
       <c r="D143" s="20" t="s">
@@ -10386,7 +10395,7 @@
       <c r="B151" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="31" t="s">
         <v>206</v>
       </c>
       <c r="D151" s="17"/>
@@ -10790,7 +10799,7 @@
       <c r="B176" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="31" t="s">
         <v>231</v>
       </c>
       <c r="D176" s="17"/>
@@ -10810,7 +10819,7 @@
       <c r="B177" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="31" t="s">
         <v>232</v>
       </c>
       <c r="D177" s="17"/>
@@ -10830,7 +10839,7 @@
       <c r="B178" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="31" t="s">
         <v>233</v>
       </c>
       <c r="D178" s="17"/>
@@ -10850,7 +10859,7 @@
       <c r="B179" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="31" t="s">
         <v>234</v>
       </c>
       <c r="D179" s="17"/>
@@ -10934,7 +10943,7 @@
       <c r="B184" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="32" t="s">
         <v>239</v>
       </c>
       <c r="D184" s="17"/>
@@ -10988,7 +10997,7 @@
       <c r="B187" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C187" s="32" t="s">
         <v>242</v>
       </c>
       <c r="D187" s="20"/>
@@ -11074,7 +11083,7 @@
       <c r="B192" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="31" t="s">
         <v>247</v>
       </c>
       <c r="D192" s="17"/>
@@ -11108,7 +11117,7 @@
       <c r="B194" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="31" t="s">
         <v>249</v>
       </c>
       <c r="D194" s="17"/>
@@ -11126,7 +11135,7 @@
       <c r="B195" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="31" t="s">
         <v>250</v>
       </c>
       <c r="D195" s="17"/>
@@ -11162,7 +11171,7 @@
       <c r="B197" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="31" t="s">
         <v>252</v>
       </c>
       <c r="D197" s="17"/>
@@ -11180,7 +11189,7 @@
       <c r="B198" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="31" t="s">
         <v>253</v>
       </c>
       <c r="D198" s="17"/>
@@ -11198,7 +11207,7 @@
       <c r="B199" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="31" t="s">
         <v>254</v>
       </c>
       <c r="D199" s="17"/>
@@ -11216,7 +11225,7 @@
       <c r="B200" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="31" t="s">
         <v>255</v>
       </c>
       <c r="D200" s="17"/>
@@ -11250,7 +11259,7 @@
       <c r="B202" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="31" t="s">
         <v>257</v>
       </c>
       <c r="D202" s="17"/>
@@ -11268,7 +11277,7 @@
       <c r="B203" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="31" t="s">
         <v>258</v>
       </c>
       <c r="D203" s="17"/>
@@ -11366,7 +11375,7 @@
       <c r="B209" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="31" t="s">
         <v>264</v>
       </c>
       <c r="D209" s="20"/>
@@ -11384,7 +11393,7 @@
       <c r="B210" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="C210" s="31" t="s">
         <v>265</v>
       </c>
       <c r="D210" s="20"/>
@@ -11418,7 +11427,7 @@
       <c r="B212" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="C212" s="31" t="s">
         <v>267</v>
       </c>
       <c r="D212" s="20"/>
@@ -11452,7 +11461,7 @@
       <c r="B214" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C214" s="27" t="s">
+      <c r="C214" s="31" t="s">
         <v>269</v>
       </c>
       <c r="D214" s="20"/>
@@ -11474,7 +11483,7 @@
       <c r="B215" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C215" s="27" t="s">
+      <c r="C215" s="31" t="s">
         <v>270</v>
       </c>
       <c r="D215" s="17"/>
@@ -11544,7 +11553,7 @@
       <c r="B219" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C219" s="20" t="s">
+      <c r="C219" s="31" t="s">
         <v>274</v>
       </c>
       <c r="D219" s="20" t="s">
@@ -11566,7 +11575,7 @@
       <c r="B220" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="C220" s="31" t="s">
         <v>275</v>
       </c>
       <c r="D220" s="20"/>
@@ -11600,7 +11609,7 @@
       <c r="B222" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="31" t="s">
         <v>277</v>
       </c>
       <c r="D222" s="20"/>
@@ -11620,7 +11629,7 @@
       <c r="B223" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C223" s="20" t="s">
+      <c r="C223" s="31" t="s">
         <v>278</v>
       </c>
       <c r="D223" s="20"/>
@@ -11766,7 +11775,7 @@
       <c r="B232" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C232" s="20" t="s">
+      <c r="C232" s="31" t="s">
         <v>287</v>
       </c>
       <c r="D232" s="20" t="s">
@@ -11786,7 +11795,7 @@
       <c r="B233" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C233" s="20" t="s">
+      <c r="C233" s="31" t="s">
         <v>288</v>
       </c>
       <c r="D233" s="20" t="s">
@@ -11808,7 +11817,7 @@
       <c r="B234" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C234" s="20" t="s">
+      <c r="C234" s="31" t="s">
         <v>289</v>
       </c>
       <c r="D234" s="20" t="s">
@@ -11828,7 +11837,7 @@
       <c r="B235" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C235" s="27" t="s">
+      <c r="C235" s="31" t="s">
         <v>290</v>
       </c>
       <c r="D235" s="20" t="s">
@@ -11868,7 +11877,7 @@
       <c r="B237" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="C237" s="31" t="s">
         <v>292</v>
       </c>
       <c r="D237" s="20" t="s">
@@ -11890,7 +11899,7 @@
       <c r="B238" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C238" s="17" t="s">
+      <c r="C238" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D238" s="17"/>
@@ -11972,7 +11981,7 @@
       <c r="B243" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C243" s="27" t="s">
+      <c r="C243" s="31" t="s">
         <v>298</v>
       </c>
       <c r="D243" s="20"/>
@@ -12218,7 +12227,7 @@
       <c r="B258" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C258" s="27" t="s">
+      <c r="C258" s="31" t="s">
         <v>314</v>
       </c>
       <c r="D258" s="17"/>
@@ -12240,7 +12249,7 @@
       <c r="B259" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C259" s="27" t="s">
+      <c r="C259" s="31" t="s">
         <v>315</v>
       </c>
       <c r="D259" s="17"/>
@@ -12262,7 +12271,7 @@
       <c r="B260" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="31" t="s">
         <v>316</v>
       </c>
       <c r="D260" s="20"/>
@@ -12280,7 +12289,7 @@
       <c r="B261" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C261" s="20" t="s">
+      <c r="C261" s="31" t="s">
         <v>317</v>
       </c>
       <c r="D261" s="20"/>
